--- a/test1/Transits.xlsx
+++ b/test1/Transits.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>__default__</t>
   </si>
@@ -191,16 +191,109 @@
   <si>
     <t>__name__</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>20211</t>
+  </si>
+  <si>
+    <t>20212</t>
+  </si>
+  <si>
+    <t>20221</t>
+  </si>
+  <si>
+    <t>20222</t>
+  </si>
+  <si>
+    <t>20231</t>
+  </si>
+  <si>
+    <t>20232</t>
+  </si>
+  <si>
+    <t>20311</t>
+  </si>
+  <si>
+    <t>20312</t>
+  </si>
+  <si>
+    <t>20313</t>
+  </si>
+  <si>
+    <t>20321</t>
+  </si>
+  <si>
+    <t>20322</t>
+  </si>
+  <si>
+    <t>20323</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -231,17 +324,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,8 +352,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,31 +384,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,50 +392,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,10 +406,57 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,7 +471,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,7 +486,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +576,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,79 +612,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,19 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,49 +660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,8 +689,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,21 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -633,6 +741,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,32 +778,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,143 +797,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,7 +955,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,7 +1039,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E0FFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1178,14 +1289,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5"/>
@@ -1221,7 +1332,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:31">
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1315,103 +1426,109 @@
       <c r="AE2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AF2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:31">
+    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1011</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1012</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1013</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1014</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1015</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1016</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1021</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1022</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1023</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1024</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2011</v>
-      </c>
-      <c r="N3" s="2">
-        <v>2012</v>
-      </c>
-      <c r="O3" s="2">
-        <v>2013</v>
-      </c>
-      <c r="P3" s="2">
-        <v>2014</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>2015</v>
-      </c>
-      <c r="R3" s="2">
-        <v>20211</v>
-      </c>
-      <c r="S3" s="2">
-        <v>20212</v>
-      </c>
-      <c r="T3" s="2">
-        <v>20221</v>
-      </c>
-      <c r="U3" s="2">
-        <v>20222</v>
-      </c>
-      <c r="V3" s="2">
-        <v>20231</v>
-      </c>
-      <c r="W3" s="2">
-        <v>20232</v>
-      </c>
-      <c r="X3" s="2">
-        <v>20311</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>20312</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>20313</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>20321</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>20322</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>20323</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>301</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>302</v>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:31">
+    <row r="4" ht="15.5" spans="1:32">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1505,8 +1622,11 @@
       <c r="AE4" s="6">
         <v>2</v>
       </c>
+      <c r="AF4" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="5" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A5" s="2">
         <v>1011</v>
       </c>
@@ -1600,8 +1720,11 @@
       <c r="AE5" s="6">
         <v>2</v>
       </c>
+      <c r="AF5" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="6" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A6" s="2">
         <v>1012</v>
       </c>
@@ -1695,8 +1818,11 @@
       <c r="AE6" s="6">
         <v>2</v>
       </c>
+      <c r="AF6" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="7" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A7" s="2">
         <v>1013</v>
       </c>
@@ -1790,8 +1916,11 @@
       <c r="AE7" s="6">
         <v>2</v>
       </c>
+      <c r="AF7" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A8" s="2">
         <v>1014</v>
       </c>
@@ -1885,8 +2014,11 @@
       <c r="AE8" s="6">
         <v>2</v>
       </c>
+      <c r="AF8" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="9" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A9" s="2">
         <v>1015</v>
       </c>
@@ -1980,8 +2112,11 @@
       <c r="AE9" s="6">
         <v>2</v>
       </c>
+      <c r="AF9" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="10" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A10" s="2">
         <v>1016</v>
       </c>
@@ -2075,8 +2210,11 @@
       <c r="AE10" s="6">
         <v>2</v>
       </c>
+      <c r="AF10" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A11" s="2">
         <v>1021</v>
       </c>
@@ -2170,8 +2308,11 @@
       <c r="AE11" s="6">
         <v>2</v>
       </c>
+      <c r="AF11" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" ht="15.5" spans="1:31">
+    <row r="12" ht="15.5" spans="1:32">
       <c r="A12" s="2">
         <v>1022</v>
       </c>
@@ -2265,8 +2406,11 @@
       <c r="AE12" s="6">
         <v>2</v>
       </c>
+      <c r="AF12" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" ht="15.5" spans="1:31">
+    <row r="13" ht="15.5" spans="1:32">
       <c r="A13" s="2">
         <v>1023</v>
       </c>
@@ -2360,8 +2504,11 @@
       <c r="AE13" s="6">
         <v>2</v>
       </c>
+      <c r="AF13" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" ht="15.5" spans="1:31">
+    <row r="14" ht="15.5" spans="1:32">
       <c r="A14" s="2">
         <v>1024</v>
       </c>
@@ -2455,8 +2602,11 @@
       <c r="AE14" s="6">
         <v>2</v>
       </c>
+      <c r="AF14" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" ht="15.5" spans="1:31">
+    <row r="15" ht="15.5" spans="1:32">
       <c r="A15" s="2">
         <v>1031</v>
       </c>
@@ -2550,8 +2700,11 @@
       <c r="AE15" s="6">
         <v>2</v>
       </c>
+      <c r="AF15" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" ht="15.5" spans="1:31">
+    <row r="16" ht="15.5" spans="1:32">
       <c r="A16" s="2">
         <v>1032</v>
       </c>
@@ -2645,8 +2798,11 @@
       <c r="AE16" s="6">
         <v>2</v>
       </c>
+      <c r="AF16" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" ht="15.5" spans="1:31">
+    <row r="17" ht="15.5" spans="1:32">
       <c r="A17" s="2">
         <v>104</v>
       </c>
@@ -2740,8 +2896,11 @@
       <c r="AE17" s="6">
         <v>2</v>
       </c>
+      <c r="AF17" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" ht="15.5" spans="1:31">
+    <row r="18" ht="15.5" spans="1:32">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -2835,8 +2994,11 @@
       <c r="AE18" s="6">
         <v>2</v>
       </c>
+      <c r="AF18" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" ht="15.5" spans="1:31">
+    <row r="19" ht="15.5" spans="1:32">
       <c r="A19" s="2">
         <v>2011</v>
       </c>
@@ -2930,8 +3092,11 @@
       <c r="AE19" s="6">
         <v>2</v>
       </c>
+      <c r="AF19" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" ht="15.5" spans="1:31">
+    <row r="20" ht="15.5" spans="1:32">
       <c r="A20" s="2">
         <v>2012</v>
       </c>
@@ -3025,8 +3190,11 @@
       <c r="AE20" s="6">
         <v>2</v>
       </c>
+      <c r="AF20" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" ht="15.5" spans="1:31">
+    <row r="21" ht="15.5" spans="1:32">
       <c r="A21" s="2">
         <v>2013</v>
       </c>
@@ -3120,8 +3288,11 @@
       <c r="AE21" s="6">
         <v>2</v>
       </c>
+      <c r="AF21" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" ht="15.5" spans="1:31">
+    <row r="22" ht="15.5" spans="1:32">
       <c r="A22" s="2">
         <v>2014</v>
       </c>
@@ -3215,8 +3386,11 @@
       <c r="AE22" s="6">
         <v>2</v>
       </c>
+      <c r="AF22" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" ht="15.5" spans="1:31">
+    <row r="23" ht="15.5" spans="1:32">
       <c r="A23" s="2">
         <v>2015</v>
       </c>
@@ -3310,8 +3484,11 @@
       <c r="AE23" s="6">
         <v>2</v>
       </c>
+      <c r="AF23" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" ht="15.5" spans="1:31">
+    <row r="24" ht="15.5" spans="1:32">
       <c r="A24" s="2">
         <v>20211</v>
       </c>
@@ -3405,8 +3582,11 @@
       <c r="AE24" s="6">
         <v>2</v>
       </c>
+      <c r="AF24" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" ht="15.5" spans="1:31">
+    <row r="25" ht="15.5" spans="1:32">
       <c r="A25" s="2">
         <v>20212</v>
       </c>
@@ -3500,8 +3680,11 @@
       <c r="AE25" s="6">
         <v>2</v>
       </c>
+      <c r="AF25" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" ht="15.5" spans="1:31">
+    <row r="26" ht="15.5" spans="1:32">
       <c r="A26" s="2">
         <v>20221</v>
       </c>
@@ -3595,8 +3778,11 @@
       <c r="AE26" s="6">
         <v>2</v>
       </c>
+      <c r="AF26" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" ht="15.5" spans="1:31">
+    <row r="27" ht="15.5" spans="1:32">
       <c r="A27" s="2">
         <v>20222</v>
       </c>
@@ -3690,8 +3876,11 @@
       <c r="AE27" s="6">
         <v>2</v>
       </c>
+      <c r="AF27" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" ht="15.5" spans="1:31">
+    <row r="28" ht="15.5" spans="1:32">
       <c r="A28" s="2">
         <v>20231</v>
       </c>
@@ -3785,8 +3974,11 @@
       <c r="AE28" s="6">
         <v>2</v>
       </c>
+      <c r="AF28" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" ht="15.5" spans="1:31">
+    <row r="29" ht="15.5" spans="1:32">
       <c r="A29" s="2">
         <v>20232</v>
       </c>
@@ -3880,8 +4072,11 @@
       <c r="AE29" s="6">
         <v>2</v>
       </c>
+      <c r="AF29" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" ht="15.5" spans="1:31">
+    <row r="30" ht="15.5" spans="1:32">
       <c r="A30" s="2">
         <v>20311</v>
       </c>
@@ -3975,8 +4170,11 @@
       <c r="AE30" s="6">
         <v>2</v>
       </c>
+      <c r="AF30" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" ht="15.5" spans="1:31">
+    <row r="31" ht="15.5" spans="1:32">
       <c r="A31" s="2">
         <v>20312</v>
       </c>
@@ -4070,8 +4268,11 @@
       <c r="AE31" s="6">
         <v>2</v>
       </c>
+      <c r="AF31" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" ht="15.5" spans="1:31">
+    <row r="32" ht="15.5" spans="1:32">
       <c r="A32" s="2">
         <v>20313</v>
       </c>
@@ -4165,8 +4366,11 @@
       <c r="AE32" s="6">
         <v>2</v>
       </c>
+      <c r="AF32" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" ht="15.5" spans="1:31">
+    <row r="33" ht="15.5" spans="1:32">
       <c r="A33" s="2">
         <v>20321</v>
       </c>
@@ -4260,8 +4464,11 @@
       <c r="AE33" s="6">
         <v>2</v>
       </c>
+      <c r="AF33" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" ht="15.5" spans="1:31">
+    <row r="34" ht="15.5" spans="1:32">
       <c r="A34" s="2">
         <v>20322</v>
       </c>
@@ -4355,8 +4562,11 @@
       <c r="AE34" s="6">
         <v>2</v>
       </c>
+      <c r="AF34" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" ht="15.5" spans="1:31">
+    <row r="35" ht="15.5" spans="1:32">
       <c r="A35" s="2">
         <v>20323</v>
       </c>
@@ -4450,8 +4660,11 @@
       <c r="AE35" s="6">
         <v>2</v>
       </c>
+      <c r="AF35" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" ht="15.5" spans="1:31">
+    <row r="36" ht="15.5" spans="1:32">
       <c r="A36" s="2">
         <v>2041</v>
       </c>
@@ -4545,8 +4758,11 @@
       <c r="AE36" s="6">
         <v>2</v>
       </c>
+      <c r="AF36" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="37" ht="15.5" spans="1:31">
+    <row r="37" ht="15.5" spans="1:32">
       <c r="A37" s="2">
         <v>2042</v>
       </c>
@@ -4640,8 +4856,11 @@
       <c r="AE37" s="6">
         <v>2</v>
       </c>
+      <c r="AF37" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" ht="15.5" spans="1:31">
+    <row r="38" ht="15.5" spans="1:32">
       <c r="A38" s="2">
         <v>2051</v>
       </c>
@@ -4735,8 +4954,11 @@
       <c r="AE38" s="6">
         <v>2</v>
       </c>
+      <c r="AF38" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" ht="15.5" spans="1:31">
+    <row r="39" ht="15.5" spans="1:32">
       <c r="A39" s="2">
         <v>2052</v>
       </c>
@@ -4830,8 +5052,11 @@
       <c r="AE39" s="6">
         <v>2</v>
       </c>
+      <c r="AF39" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" ht="15.5" spans="1:31">
+    <row r="40" ht="15.5" spans="1:32">
       <c r="A40" s="2">
         <v>301</v>
       </c>
@@ -4925,8 +5150,11 @@
       <c r="AE40" s="6">
         <v>2</v>
       </c>
+      <c r="AF40" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="41" ht="15.5" spans="1:31">
+    <row r="41" ht="15.5" spans="1:32">
       <c r="A41" s="2">
         <v>302</v>
       </c>
@@ -5020,8 +5248,11 @@
       <c r="AE41" s="6">
         <v>2</v>
       </c>
+      <c r="AF41" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" ht="15.5" spans="1:31">
+    <row r="42" ht="15.5" spans="1:32">
       <c r="A42" s="2">
         <v>303</v>
       </c>
@@ -5115,8 +5346,11 @@
       <c r="AE42" s="6">
         <v>2</v>
       </c>
+      <c r="AF42" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" ht="15.5" spans="1:31">
+    <row r="43" ht="15.5" spans="1:32">
       <c r="A43" s="2">
         <v>304</v>
       </c>
@@ -5209,6 +5443,107 @@
       </c>
       <c r="AE43" s="6">
         <v>2</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="15.5" spans="1:32">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>0</v>
+      </c>
+      <c r="U44" s="7">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0</v>
+      </c>
+      <c r="X44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test1/Transits.xlsx
+++ b/test1/Transits.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>__default__</t>
   </si>
@@ -276,6 +276,12 @@
     <t>20323</t>
   </si>
   <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>2062</t>
+  </si>
+  <si>
     <t>301</t>
   </si>
   <si>
@@ -291,9 +297,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -324,21 +330,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,21 +353,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,16 +375,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,56 +452,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +534,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,19 +624,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,61 +648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,61 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,8 +695,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,7 +705,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +740,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -760,26 +781,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,10 +803,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,127 +815,127 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,7 +1045,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E0FFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1289,25 +1295,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF44"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.6636363636364" style="2" customWidth="1"/>
-    <col min="2" max="32" width="10.6363636363636" style="2" customWidth="1"/>
-    <col min="33" max="16381" width="15.6636363636364" style="2" customWidth="1"/>
-    <col min="16382" max="16384" width="15.6636363636364" style="2"/>
+    <col min="2" max="34" width="10.6363636363636" style="2" customWidth="1"/>
+    <col min="35" max="16383" width="15.6636363636364" style="2" customWidth="1"/>
+    <col min="16384" max="16384" width="15.6636363636364" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:15">
+    <row r="1" ht="15.5" spans="1:31">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1331,8 +1337,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:32">
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:34">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1429,8 +1437,14 @@
       <c r="AF2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:32">
+    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1521,14 +1535,20 @@
       <c r="AD3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="AG3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" ht="15.5" spans="1:32">
+    <row r="4" ht="15.5" spans="1:34">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1625,8 +1645,14 @@
       <c r="AF4" s="6">
         <v>2</v>
       </c>
+      <c r="AG4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15.5" spans="1:32">
+    <row r="5" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A5" s="2">
         <v>1011</v>
       </c>
@@ -1723,8 +1749,14 @@
       <c r="AF5" s="6">
         <v>2</v>
       </c>
+      <c r="AG5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15.5" spans="1:32">
+    <row r="6" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A6" s="2">
         <v>1012</v>
       </c>
@@ -1821,8 +1853,14 @@
       <c r="AF6" s="6">
         <v>2</v>
       </c>
+      <c r="AG6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15.5" spans="1:32">
+    <row r="7" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A7" s="2">
         <v>1013</v>
       </c>
@@ -1919,8 +1957,14 @@
       <c r="AF7" s="6">
         <v>2</v>
       </c>
+      <c r="AG7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:32">
+    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A8" s="2">
         <v>1014</v>
       </c>
@@ -2017,8 +2061,14 @@
       <c r="AF8" s="6">
         <v>2</v>
       </c>
+      <c r="AG8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.5" spans="1:32">
+    <row r="9" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A9" s="2">
         <v>1015</v>
       </c>
@@ -2115,8 +2165,14 @@
       <c r="AF9" s="6">
         <v>2</v>
       </c>
+      <c r="AG9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15.5" spans="1:32">
+    <row r="10" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A10" s="2">
         <v>1016</v>
       </c>
@@ -2213,8 +2269,14 @@
       <c r="AF10" s="6">
         <v>2</v>
       </c>
+      <c r="AG10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:32">
+    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A11" s="2">
         <v>1021</v>
       </c>
@@ -2311,8 +2373,14 @@
       <c r="AF11" s="6">
         <v>2</v>
       </c>
+      <c r="AG11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" ht="15.5" spans="1:32">
+    <row r="12" ht="15.5" spans="1:34">
       <c r="A12" s="2">
         <v>1022</v>
       </c>
@@ -2409,8 +2477,14 @@
       <c r="AF12" s="6">
         <v>2</v>
       </c>
+      <c r="AG12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" ht="15.5" spans="1:32">
+    <row r="13" ht="15.5" spans="1:34">
       <c r="A13" s="2">
         <v>1023</v>
       </c>
@@ -2507,8 +2581,14 @@
       <c r="AF13" s="6">
         <v>2</v>
       </c>
+      <c r="AG13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" ht="15.5" spans="1:32">
+    <row r="14" ht="15.5" spans="1:34">
       <c r="A14" s="2">
         <v>1024</v>
       </c>
@@ -2605,8 +2685,14 @@
       <c r="AF14" s="6">
         <v>2</v>
       </c>
+      <c r="AG14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" ht="15.5" spans="1:32">
+    <row r="15" ht="15.5" spans="1:34">
       <c r="A15" s="2">
         <v>1031</v>
       </c>
@@ -2694,17 +2780,23 @@
       <c r="AC15" s="4">
         <v>0</v>
       </c>
-      <c r="AD15" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>2</v>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
       </c>
       <c r="AF15" s="6">
         <v>2</v>
       </c>
+      <c r="AG15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" ht="15.5" spans="1:32">
+    <row r="16" ht="15.5" spans="1:34">
       <c r="A16" s="2">
         <v>1032</v>
       </c>
@@ -2792,17 +2884,23 @@
       <c r="AC16" s="4">
         <v>0</v>
       </c>
-      <c r="AD16" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>2</v>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
       </c>
       <c r="AF16" s="6">
         <v>2</v>
       </c>
+      <c r="AG16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" ht="15.5" spans="1:32">
+    <row r="17" ht="15.5" spans="1:34">
       <c r="A17" s="2">
         <v>104</v>
       </c>
@@ -2890,17 +2988,23 @@
       <c r="AC17" s="4">
         <v>0</v>
       </c>
-      <c r="AD17" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="6">
-        <v>2</v>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
       </c>
       <c r="AF17" s="6">
         <v>2</v>
       </c>
+      <c r="AG17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" ht="15.5" spans="1:32">
+    <row r="18" ht="15.5" spans="1:34">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -2988,17 +3092,23 @@
       <c r="AC18" s="4">
         <v>0</v>
       </c>
-      <c r="AD18" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="6">
-        <v>2</v>
+      <c r="AD18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
       </c>
       <c r="AF18" s="6">
         <v>2</v>
       </c>
+      <c r="AG18" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" ht="15.5" spans="1:32">
+    <row r="19" ht="15.5" spans="1:34">
       <c r="A19" s="2">
         <v>2011</v>
       </c>
@@ -3086,17 +3196,23 @@
       <c r="AC19" s="4">
         <v>0</v>
       </c>
-      <c r="AD19" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE19" s="6">
-        <v>2</v>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
       </c>
       <c r="AF19" s="6">
         <v>2</v>
       </c>
+      <c r="AG19" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" ht="15.5" spans="1:32">
+    <row r="20" ht="15.5" spans="1:34">
       <c r="A20" s="2">
         <v>2012</v>
       </c>
@@ -3184,17 +3300,23 @@
       <c r="AC20" s="4">
         <v>0</v>
       </c>
-      <c r="AD20" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="6">
-        <v>2</v>
+      <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
       </c>
       <c r="AF20" s="6">
         <v>2</v>
       </c>
+      <c r="AG20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" ht="15.5" spans="1:32">
+    <row r="21" ht="15.5" spans="1:34">
       <c r="A21" s="2">
         <v>2013</v>
       </c>
@@ -3282,17 +3404,23 @@
       <c r="AC21" s="4">
         <v>0</v>
       </c>
-      <c r="AD21" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="6">
-        <v>2</v>
+      <c r="AD21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
       </c>
       <c r="AF21" s="6">
         <v>2</v>
       </c>
+      <c r="AG21" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" ht="15.5" spans="1:32">
+    <row r="22" ht="15.5" spans="1:34">
       <c r="A22" s="2">
         <v>2014</v>
       </c>
@@ -3380,17 +3508,23 @@
       <c r="AC22" s="4">
         <v>0</v>
       </c>
-      <c r="AD22" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="6">
-        <v>2</v>
+      <c r="AD22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>0</v>
       </c>
       <c r="AF22" s="6">
         <v>2</v>
       </c>
+      <c r="AG22" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" ht="15.5" spans="1:32">
+    <row r="23" ht="15.5" spans="1:34">
       <c r="A23" s="2">
         <v>2015</v>
       </c>
@@ -3478,17 +3612,23 @@
       <c r="AC23" s="4">
         <v>0</v>
       </c>
-      <c r="AD23" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="6">
-        <v>2</v>
+      <c r="AD23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>0</v>
       </c>
       <c r="AF23" s="6">
         <v>2</v>
       </c>
+      <c r="AG23" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" ht="15.5" spans="1:32">
+    <row r="24" ht="15.5" spans="1:34">
       <c r="A24" s="2">
         <v>20211</v>
       </c>
@@ -3576,17 +3716,23 @@
       <c r="AC24" s="4">
         <v>0</v>
       </c>
-      <c r="AD24" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE24" s="6">
-        <v>2</v>
+      <c r="AD24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>0</v>
       </c>
       <c r="AF24" s="6">
         <v>2</v>
       </c>
+      <c r="AG24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" ht="15.5" spans="1:32">
+    <row r="25" ht="15.5" spans="1:34">
       <c r="A25" s="2">
         <v>20212</v>
       </c>
@@ -3674,17 +3820,23 @@
       <c r="AC25" s="4">
         <v>0</v>
       </c>
-      <c r="AD25" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="6">
-        <v>2</v>
+      <c r="AD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0</v>
       </c>
       <c r="AF25" s="6">
         <v>2</v>
       </c>
+      <c r="AG25" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" ht="15.5" spans="1:32">
+    <row r="26" ht="15.5" spans="1:34">
       <c r="A26" s="2">
         <v>20221</v>
       </c>
@@ -3772,17 +3924,23 @@
       <c r="AC26" s="4">
         <v>0</v>
       </c>
-      <c r="AD26" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="6">
-        <v>2</v>
+      <c r="AD26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>0</v>
       </c>
       <c r="AF26" s="6">
         <v>2</v>
       </c>
+      <c r="AG26" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" ht="15.5" spans="1:32">
+    <row r="27" ht="15.5" spans="1:34">
       <c r="A27" s="2">
         <v>20222</v>
       </c>
@@ -3870,17 +4028,23 @@
       <c r="AC27" s="4">
         <v>0</v>
       </c>
-      <c r="AD27" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE27" s="6">
-        <v>2</v>
+      <c r="AD27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>0</v>
       </c>
       <c r="AF27" s="6">
         <v>2</v>
       </c>
+      <c r="AG27" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" ht="15.5" spans="1:32">
+    <row r="28" ht="15.5" spans="1:34">
       <c r="A28" s="2">
         <v>20231</v>
       </c>
@@ -3968,17 +4132,23 @@
       <c r="AC28" s="4">
         <v>0</v>
       </c>
-      <c r="AD28" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE28" s="6">
-        <v>2</v>
+      <c r="AD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>0</v>
       </c>
       <c r="AF28" s="6">
         <v>2</v>
       </c>
+      <c r="AG28" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" ht="15.5" spans="1:32">
+    <row r="29" ht="15.5" spans="1:34">
       <c r="A29" s="2">
         <v>20232</v>
       </c>
@@ -4066,17 +4236,23 @@
       <c r="AC29" s="4">
         <v>0</v>
       </c>
-      <c r="AD29" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE29" s="6">
-        <v>2</v>
+      <c r="AD29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>0</v>
       </c>
       <c r="AF29" s="6">
         <v>2</v>
       </c>
+      <c r="AG29" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" ht="15.5" spans="1:32">
+    <row r="30" ht="15.5" spans="1:34">
       <c r="A30" s="2">
         <v>20311</v>
       </c>
@@ -4164,17 +4340,23 @@
       <c r="AC30" s="4">
         <v>0</v>
       </c>
-      <c r="AD30" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE30" s="6">
-        <v>2</v>
+      <c r="AD30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>0</v>
       </c>
       <c r="AF30" s="6">
         <v>2</v>
       </c>
+      <c r="AG30" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" ht="15.5" spans="1:32">
+    <row r="31" ht="15.5" spans="1:34">
       <c r="A31" s="2">
         <v>20312</v>
       </c>
@@ -4262,17 +4444,23 @@
       <c r="AC31" s="4">
         <v>0</v>
       </c>
-      <c r="AD31" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE31" s="6">
-        <v>2</v>
+      <c r="AD31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>0</v>
       </c>
       <c r="AF31" s="6">
         <v>2</v>
       </c>
+      <c r="AG31" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" ht="15.5" spans="1:32">
+    <row r="32" ht="15.5" spans="1:34">
       <c r="A32" s="2">
         <v>20313</v>
       </c>
@@ -4360,17 +4548,23 @@
       <c r="AC32" s="4">
         <v>0</v>
       </c>
-      <c r="AD32" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE32" s="6">
-        <v>2</v>
+      <c r="AD32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>0</v>
       </c>
       <c r="AF32" s="6">
         <v>2</v>
       </c>
+      <c r="AG32" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" ht="15.5" spans="1:32">
+    <row r="33" ht="15.5" spans="1:34">
       <c r="A33" s="2">
         <v>20321</v>
       </c>
@@ -4458,17 +4652,23 @@
       <c r="AC33" s="4">
         <v>0</v>
       </c>
-      <c r="AD33" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE33" s="6">
-        <v>2</v>
+      <c r="AD33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>0</v>
       </c>
       <c r="AF33" s="6">
         <v>2</v>
       </c>
+      <c r="AG33" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" ht="15.5" spans="1:32">
+    <row r="34" ht="15.5" spans="1:34">
       <c r="A34" s="2">
         <v>20322</v>
       </c>
@@ -4556,17 +4756,23 @@
       <c r="AC34" s="6">
         <v>1</v>
       </c>
-      <c r="AD34" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE34" s="6">
-        <v>2</v>
+      <c r="AD34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>0</v>
       </c>
       <c r="AF34" s="6">
         <v>2</v>
       </c>
+      <c r="AG34" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" ht="15.5" spans="1:32">
+    <row r="35" ht="15.5" spans="1:34">
       <c r="A35" s="2">
         <v>20323</v>
       </c>
@@ -4654,17 +4860,23 @@
       <c r="AC35" s="4">
         <v>0</v>
       </c>
-      <c r="AD35" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE35" s="6">
-        <v>2</v>
+      <c r="AD35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>0</v>
       </c>
       <c r="AF35" s="6">
         <v>2</v>
       </c>
+      <c r="AG35" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH35" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" ht="15.5" spans="1:32">
+    <row r="36" ht="15.5" spans="1:34">
       <c r="A36" s="2">
         <v>2041</v>
       </c>
@@ -4752,17 +4964,23 @@
       <c r="AC36" s="4">
         <v>0</v>
       </c>
-      <c r="AD36" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE36" s="6">
-        <v>2</v>
+      <c r="AD36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>0</v>
       </c>
       <c r="AF36" s="6">
         <v>2</v>
       </c>
+      <c r="AG36" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH36" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="37" ht="15.5" spans="1:32">
+    <row r="37" ht="15.5" spans="1:34">
       <c r="A37" s="2">
         <v>2042</v>
       </c>
@@ -4850,17 +5068,23 @@
       <c r="AC37" s="4">
         <v>0</v>
       </c>
-      <c r="AD37" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE37" s="6">
-        <v>2</v>
+      <c r="AD37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>0</v>
       </c>
       <c r="AF37" s="6">
         <v>2</v>
       </c>
+      <c r="AG37" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH37" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" ht="15.5" spans="1:32">
+    <row r="38" ht="15.5" spans="1:34">
       <c r="A38" s="2">
         <v>2051</v>
       </c>
@@ -4948,17 +5172,23 @@
       <c r="AC38" s="4">
         <v>0</v>
       </c>
-      <c r="AD38" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE38" s="6">
-        <v>2</v>
+      <c r="AD38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>0</v>
       </c>
       <c r="AF38" s="6">
         <v>2</v>
       </c>
+      <c r="AG38" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" ht="15.5" spans="1:32">
+    <row r="39" ht="15.5" spans="1:34">
       <c r="A39" s="2">
         <v>2052</v>
       </c>
@@ -5046,19 +5276,25 @@
       <c r="AC39" s="4">
         <v>0</v>
       </c>
-      <c r="AD39" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE39" s="6">
-        <v>2</v>
+      <c r="AD39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>0</v>
       </c>
       <c r="AF39" s="6">
         <v>2</v>
       </c>
+      <c r="AG39" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" ht="15.5" spans="1:32">
+    <row r="40" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A40" s="2">
-        <v>301</v>
+        <v>2061</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
@@ -5144,19 +5380,25 @@
       <c r="AC40" s="4">
         <v>0</v>
       </c>
-      <c r="AD40" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="6">
-        <v>2</v>
-      </c>
-      <c r="AF40" s="6">
+      <c r="AD40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="41" ht="15.5" spans="1:32">
+    <row r="41" s="2" customFormat="1" ht="15.5" spans="1:34">
       <c r="A41" s="2">
-        <v>302</v>
+        <v>2062</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -5242,19 +5484,25 @@
       <c r="AC41" s="4">
         <v>0</v>
       </c>
-      <c r="AD41" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE41" s="6">
-        <v>2</v>
-      </c>
-      <c r="AF41" s="6">
+      <c r="AD41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="42" ht="15.5" spans="1:32">
+    <row r="42" ht="15.5" spans="1:34">
       <c r="A42" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
@@ -5340,19 +5588,25 @@
       <c r="AC42" s="4">
         <v>0</v>
       </c>
-      <c r="AD42" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE42" s="6">
-        <v>2</v>
+      <c r="AD42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>0</v>
       </c>
       <c r="AF42" s="6">
         <v>2</v>
       </c>
+      <c r="AG42" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH42" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" ht="15.5" spans="1:32">
+    <row r="43" ht="15.5" spans="1:34">
       <c r="A43" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -5438,111 +5692,331 @@
       <c r="AC43" s="4">
         <v>0</v>
       </c>
-      <c r="AD43" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE43" s="6">
-        <v>2</v>
+      <c r="AD43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>0</v>
       </c>
       <c r="AF43" s="6">
         <v>2</v>
       </c>
+      <c r="AG43" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH43" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="15.5" spans="1:32">
+    <row r="44" ht="15.5" spans="1:34">
       <c r="A44" s="2">
+        <v>303</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <v>0</v>
+      </c>
+      <c r="U44" s="4">
+        <v>0</v>
+      </c>
+      <c r="V44" s="4">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
+        <v>0</v>
+      </c>
+      <c r="X44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG44" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH44" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="15.5" spans="1:34">
+      <c r="A45" s="2">
+        <v>304</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0</v>
+      </c>
+      <c r="U45" s="4">
+        <v>0</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH45" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="15.5" spans="1:34">
+      <c r="A46" s="2">
         <v>4</v>
       </c>
-      <c r="B44" s="7">
-        <v>0</v>
-      </c>
-      <c r="C44" s="7">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7">
-        <v>0</v>
-      </c>
-      <c r="L44" s="7">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-      <c r="P44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>0</v>
-      </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-      <c r="S44" s="7">
-        <v>0</v>
-      </c>
-      <c r="T44" s="7">
-        <v>0</v>
-      </c>
-      <c r="U44" s="7">
-        <v>0</v>
-      </c>
-      <c r="V44" s="7">
-        <v>0</v>
-      </c>
-      <c r="W44" s="7">
-        <v>0</v>
-      </c>
-      <c r="X44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="7">
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
+        <v>0</v>
+      </c>
+      <c r="U46" s="7">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7">
+        <v>0</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0</v>
+      </c>
+      <c r="X46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="7">
         <v>0</v>
       </c>
     </row>
